--- a/public/excel/data_peserta.xlsx
+++ b/public/excel/data_peserta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahed\Desktop\apadok\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5E28FA-D978-44AF-B3FB-D8E2B9A50B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B030C-3E73-42D6-8D87-308C488BEEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-210" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,10 @@
     <t>Nomor Telepon</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Nomor Peserta</t>
   </si>
   <si>
-    <t>List Data Pasien</t>
+    <t>List Data Peserta</t>
   </si>
   <si>
     <r>
@@ -42,7 +42,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Nama :</t>
+      <t>Nomor Peserta :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Di isi dengan nomor unik peserta (nomor pegawai, pasien, nomor induk)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Nama :</t>
     </r>
     <r>
       <rPr>
@@ -81,7 +101,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>contoh 081226784930</t>
+      <t>contoh 081226784930 (kosongi jika ingin peserta mengisinya melalui pendaftaran)</t>
     </r>
   </si>
 </sst>
@@ -164,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,9 +195,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,12 +510,12 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
@@ -515,7 +532,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -528,45 +545,60 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -666,8 +698,8 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
-    <mergeCell ref="E4:I6"/>
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E4:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
